--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2125481.645628252</v>
+        <v>2122464.055227316</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665968</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>285.3512972079782</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>62.62994551992853</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8335894988186328</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>186.3676115384767</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>143.7391060166177</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.28139784613012</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>219.4708547424611</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>46.58646588932591</v>
+        <v>210.3214022536656</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.70069904471069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633723</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>12.25677756260405</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431826</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>94.16481274941303</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5939543694863</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>8.627084658464133</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985709</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849799</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>128.4311136242681</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7644211441611412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>32.32977191672779</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>34.55149341718307</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890323</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,10 +2609,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>45.874245418885</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>174.9428846697296</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>225.2740933674324</v>
       </c>
       <c r="V31" t="n">
-        <v>59.77945773665003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>213.8889536739949</v>
+        <v>224.8952567231534</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>153.3808996750726</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>40.92702031674551</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>47.69985694152505</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>191.59364879114</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1324.592304260108</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>913.6063994705003</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>495.6425913686871</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>54.78499141513075</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>54.78499141513075</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.591755944065</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1937.591755944065</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4604,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.6310627346887</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>263.6310627346887</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>263.6310627346887</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>263.6310627346887</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>263.6310627346887</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>94.63126247302114</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.6310627346887</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561874</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.737983561874</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D8" t="n">
-        <v>1315.737983561874</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E8" t="n">
-        <v>929.9497309636295</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F8" t="n">
-        <v>518.963826174022</v>
+        <v>837.8186267893765</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0000180722088</v>
+        <v>419.8548186875634</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601807</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788206999</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788206999</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942408</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.7728273507107</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>498.9056400965584</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030227</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391115</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632085</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508727</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684796</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705692</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>109.5976748568556</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5236,13 +5236,13 @@
         <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.849341221355</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5306,22 +5306,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147083</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>786.0822064765243</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>786.0822064765243</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>635.9655670641886</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>488.0524734817955</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>488.0524734817955</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028589</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799416</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471245</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557908</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.99626047346</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262966</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765243</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765243</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765243</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765243</v>
+        <v>192.3330639344405</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.0822064765243</v>
+        <v>192.3330639344405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5543,22 +5543,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095318</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001782</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281744</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945777</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164474</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.11514360128</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916994</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>256.0479578003632</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028589</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688123</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799415</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471244</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771468</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655808</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286203</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226306029</v>
+        <v>836.7696400421421</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226306029</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2881.956579893676</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>3128.72170780014</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.041841080102</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744135</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962832</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684849</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684849</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684849</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F22" t="n">
         <v>527.3450129705745</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>674.2349604684849</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>674.2349604684849</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X22" t="n">
-        <v>674.2349604684849</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.2349604684849</v>
+        <v>955.1031435655742</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5972,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>4385.377505664876</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>4216.441322736969</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>4066.324683324633</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>3918.41158974224</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>3771.52164224433</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3603.34632056415</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W25" t="n">
-        <v>696.417229953885</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="X25" t="n">
-        <v>468.4276790558727</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>4385.377505664876</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,34 +6230,34 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.9798268587604</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C28" t="n">
-        <v>527.0436439308535</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.42087083253</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>877.6282916890001</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,34 +6692,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,7 +6780,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
         <v>1206.718781115523</v>
@@ -6789,7 +6789,7 @@
         <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
         <v>2123.441607278215</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>397.7517393246783</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>397.7517393246783</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1282.866822402352</v>
+        <v>4633.687647031309</v>
       </c>
       <c r="V34" t="n">
-        <v>1028.182334196465</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W34" t="n">
-        <v>1028.182334196465</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X34" t="n">
-        <v>800.1927832984481</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.400204154918</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
         <v>1206.718781115523</v>
@@ -7026,7 +7026,7 @@
         <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
         <v>2123.441607278215</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324578</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324578</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324578</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7187,16 +7187,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>488.2756279992589</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L39" t="n">
-        <v>735.040755905723</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962217</v>
+        <v>3533.836934303321</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>177.4940699453572</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619851</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.84934122136</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>1322.84934122136</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X43" t="n">
-        <v>1322.84934122136</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>1071.006709575437</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,22 +7670,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7725,10 +7725,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
         <v>1206.718781115523</v>
@@ -7737,7 +7737,7 @@
         <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1020.446367141522</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7813,7 +7813,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1305.387332385034</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347409</v>
+        <v>1305.387332385034</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141522</v>
+        <v>1305.387332385034</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141522</v>
+        <v>1305.387332385034</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.446367141522</v>
+        <v>1077.397781487016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1020.446367141522</v>
+        <v>856.6052023434863</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>87.16935584025265</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524669928</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208043</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503144</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>234.4116509503156</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776746</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>76.43196988338454</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.16246790166792</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>85.66716743252427</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>38.89961409389126</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.6197364401637</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>108.8451328388481</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>51.40086655766922</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3732221796669</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.5840564508083</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>251.9715049194079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.7412275993273</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>50.76677071930752</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>60.96325903114499</v>
       </c>
       <c r="V31" t="n">
-        <v>192.358185587178</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25129,13 +25129,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>72.34839872458247</v>
+        <v>61.34209567542396</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>13.86592142355519</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>87.01935976315694</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,13 +25597,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.9049598651918</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25843,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>77.83138328065075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>119.5469641571028</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>29.95391226724922</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669377</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871667</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274983.5063613179</v>
+        <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314984.3728532263</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
-        <v>314984.372853226</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="E6" t="n">
-        <v>-103969.6324340153</v>
+        <v>-104303.801401145</v>
       </c>
       <c r="F6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757515</v>
       </c>
       <c r="G6" t="n">
-        <v>421190.4040428811</v>
+        <v>420856.2350757511</v>
       </c>
       <c r="H6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="I6" t="n">
-        <v>421190.4040428807</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="J6" t="n">
-        <v>244767.1848502879</v>
+        <v>244433.0158831584</v>
       </c>
       <c r="K6" t="n">
-        <v>421190.4040428806</v>
+        <v>420856.2350757512</v>
       </c>
       <c r="L6" t="n">
-        <v>421190.4040428806</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="M6" t="n">
-        <v>286389.3888090439</v>
+        <v>286055.219841914</v>
       </c>
       <c r="N6" t="n">
-        <v>421190.4040428809</v>
+        <v>420856.2350757516</v>
       </c>
       <c r="O6" t="n">
-        <v>421190.4040428806</v>
+        <v>420856.2350757513</v>
       </c>
       <c r="P6" t="n">
-        <v>421190.4040428806</v>
+        <v>420856.2350757513</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38.57147555637897</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>265.1223129502064</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>44.36636968971837</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.25160475629397</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>168.3154300822063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>225.9919946618514</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>115.889490995665</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>67.05214359412989</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.3363068750313</v>
+        <v>113.6013705106915</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.1312811372266</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.032423543847198e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.278858831540371e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.104943754957264e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.244302867549568e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>237.744794428192</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980131</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209233</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>383.9564222971657</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799337</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
@@ -35972,19 +35972,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P18" t="n">
-        <v>484.765211552329</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299157</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382537</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>483.66935590634</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.666887533699</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349766</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>227.0074084713238</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914238</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349766</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382552</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122464.055227316</v>
+        <v>2197993.724892122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10017056.05358072</v>
+        <v>10017056.05358071</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>285.3512972079782</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>111.6662751914705</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>123.5492650282466</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>143.7391060166177</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>219.4708547424611</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>210.3214022536656</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>121.2547094525092</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.541260908764</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>12.25677756260405</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.16481274941303</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>75.49838637028853</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>143.2925104849799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.4311136242681</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>216.4586446023289</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>122.6519788371532</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.32977191672779</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>45.874245418885</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>161.1706059301397</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>138.9281674874325</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>225.2740933674324</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.8952567231534</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>195.815584166324</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206847</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>78.04445447466455</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>79.47420870022064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.64843562452451</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.92702031674551</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>191.59364879114</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>276.1491823570827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.380556858352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1324.592304260108</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>913.6063994705003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>495.6425913686871</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683986</v>
+        <v>1005.372199209269</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.818078743575</v>
+        <v>1005.372199209269</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.552380136824</v>
+        <v>1005.372199209269</v>
       </c>
       <c r="E8" t="n">
-        <v>844.7641275385799</v>
+        <v>1005.372199209269</v>
       </c>
       <c r="F8" t="n">
-        <v>837.8186267893765</v>
+        <v>594.3862944196617</v>
       </c>
       <c r="G8" t="n">
-        <v>419.8548186875634</v>
+        <v>176.4224863178486</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>176.4224863178486</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519317</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1782.111371249203</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1782.111371249203</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>1391.972039273391</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571352</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610031</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610031</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610031</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610031</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.068505649155</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1323227212481</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>260.0156833089123</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0156833089123</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0156833089123</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>260.0156833089123</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5976748568556</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229249</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793947</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5269,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3330639344405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.3330639344405</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011341</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683722</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404653</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404653</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688123</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799415</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471244</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1354.17636097712</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X19" t="n">
-        <v>836.7696400421421</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.977060898612</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.3747459653034</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653034</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1280.271174999994</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655742</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655742</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.1031435655742</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6074,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
         <v>1514.038914395485</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4385.377505664876</v>
+        <v>221.107979174582</v>
       </c>
       <c r="C25" t="n">
-        <v>4216.441322736969</v>
+        <v>221.107979174582</v>
       </c>
       <c r="D25" t="n">
-        <v>4066.324683324633</v>
+        <v>221.107979174582</v>
       </c>
       <c r="E25" t="n">
-        <v>3918.41158974224</v>
+        <v>221.107979174582</v>
       </c>
       <c r="F25" t="n">
-        <v>3771.52164224433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3603.34632056415</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.60808497466</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980057</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347401</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609596</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>731.3177283550727</v>
       </c>
       <c r="W25" t="n">
-        <v>4606.170084808406</v>
+        <v>441.9005583181121</v>
       </c>
       <c r="X25" t="n">
-        <v>4606.170084808406</v>
+        <v>441.9005583181121</v>
       </c>
       <c r="Y25" t="n">
-        <v>4385.377505664876</v>
+        <v>221.107979174582</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,22 +6250,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164472</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.4856756861153</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>868.4856756861153</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6421,13 +6423,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516355</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705744</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1358.584788247365</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="U31" t="n">
-        <v>1071.446671213422</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="V31" t="n">
-        <v>816.762183007535</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705744</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705744</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705744</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>4633.687647031309</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>4379.003158825422</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>4089.585988788462</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861153</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582084</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458727</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>401.5197597634796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,49 +7177,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3533.836934303321</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C40" t="n">
-        <v>324.3840174432676</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D40" t="n">
-        <v>324.3840174432676</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E40" t="n">
-        <v>324.3840174432676</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F40" t="n">
-        <v>177.4940699453572</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7415,43 +7417,43 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7672,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7813,7 +7815,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1305.387332385034</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1305.387332385034</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.387332385034</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>1305.387332385034</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.397781487016</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>856.6052023434863</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270183</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951771</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>85.30006332127743</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4116509503157</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.16246790166792</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.66716743252427</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>73.11708664792383</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>108.8451328388481</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.40086655766922</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>5.088916456060332</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>22.76906918577804</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5840564508083</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>102.7412275993273</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.322962533237842</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>58.9926424961707</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>60.96325903114499</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465761</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25126,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.34209567542396</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>29.89407122271319</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>140.5401988774302</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>87.01935976315694</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301162</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.9049598651918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>29.95391226724922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>10.08817004149461</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854970.3543669377</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583911</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
         <v>527889.230645907</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.740199767097476e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26436,19 +26438,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.669621439</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="J4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.669621439</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="N4" t="n">
         <v>15045.66962143909</v>
@@ -26457,7 +26459,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707853</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.158343759</v>
+        <v>314569.1583437592</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.1583437586</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.801401145</v>
+        <v>-104303.8014011445</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757515</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757511</v>
+        <v>420856.2350757517</v>
       </c>
       <c r="H6" t="n">
+        <v>420856.2350757513</v>
+      </c>
+      <c r="I6" t="n">
+        <v>420856.2350757513</v>
+      </c>
+      <c r="J6" t="n">
+        <v>244433.0158831581</v>
+      </c>
+      <c r="K6" t="n">
+        <v>420856.2350757513</v>
+      </c>
+      <c r="L6" t="n">
         <v>420856.2350757514</v>
       </c>
-      <c r="I6" t="n">
-        <v>420856.2350757516</v>
-      </c>
-      <c r="J6" t="n">
-        <v>244433.0158831584</v>
-      </c>
-      <c r="K6" t="n">
-        <v>420856.2350757512</v>
-      </c>
-      <c r="L6" t="n">
-        <v>420856.2350757513</v>
-      </c>
       <c r="M6" t="n">
-        <v>286055.219841914</v>
+        <v>286055.2198419141</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757516</v>
+        <v>420856.2350757514</v>
       </c>
       <c r="O6" t="n">
         <v>420856.2350757513</v>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,34 +26795,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>38.57147555637897</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>258.0648254869985</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.25160475629397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>22.82750184132345</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>231.1337765924364</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>225.9919946618514</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>67.05214359412989</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>113.6013705106915</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.67660679235198</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.04339244333082</v>
       </c>
     </row>
     <row r="11">
@@ -29229,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-6.920691659962316e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.370970955225845e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35021,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299157</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36525,16 +36527,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055967</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>334.5577682773018</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>516.7753531914238</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197993.724892122</v>
+        <v>2190976.71000041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>111.6662751914705</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>279.5106614771182</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.7571515107713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>123.5492650282466</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>325.9002695577313</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>237.4552014283708</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>121.2547094525092</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586874</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853694</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.541260908764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710048</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722642</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>85.74850411421474</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.49838637028853</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274057</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>216.4586446023289</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>219.394561164648</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>122.6519788371532</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.1706059301397</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073179</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.9281674874325</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>59.04395605284579</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>195.815584166324</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>130.8849953956091</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.04445447466455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>57.64843562452451</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>144.5349172616891</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>276.1491823570827</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2111.958421263255</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.3944877309076</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>947.5870540873382</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>536.6011492977307</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4655,34 +4655,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.372199209269</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="C8" t="n">
-        <v>1005.372199209269</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.372199209269</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="E8" t="n">
-        <v>1005.372199209269</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>594.3862944196617</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>176.4224863178486</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>176.4224863178486</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4813,43 +4813,43 @@
         <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862888</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862888</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519317</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249203</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249203</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273391</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571352</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649891</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511404</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>409.0761618661919</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>261.1630682837988</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2731207858884</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,22 +5041,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5263,61 +5263,61 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>499.657872506522</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>330.7216895786152</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>330.7216895786152</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>330.7216895786152</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>183.8317420807048</v>
       </c>
       <c r="G16" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>499.657872506522</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5506,61 +5506,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.3911813763037</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C19" t="n">
-        <v>321.3911813763037</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065435</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5758,13 +5758,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.271174999994</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>991.1425362135525</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="V22" t="n">
-        <v>736.4580480076656</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W22" t="n">
-        <v>447.040877970705</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X22" t="n">
-        <v>447.040877970705</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,22 +6013,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.107979174582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>221.107979174582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>221.107979174582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>221.107979174582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.60808497466</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980057</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557896</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347401</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609596</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550727</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181121</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>441.9005583181121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.107979174582</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1358.584788247365</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1134.799373036871</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.799373036871</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1134.799373036871</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>1134.799373036871</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>1134.799373036871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6785,22 +6785,22 @@
         <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X34" t="n">
-        <v>244.1070389581962</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.1070389581962</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.6009593486384</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
         <v>208.7516828383384</v>
@@ -7092,13 +7092,13 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765191</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765191</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X37" t="n">
-        <v>786.0822064765191</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.2494241788781</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7171,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.384017443268</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153611</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153611</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153611</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153611</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>155.4478345153611</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>1241.84630119883</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>1241.84630119883</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150552</v>
+        <v>952.4291311618693</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170379</v>
+        <v>952.4291311618693</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735078</v>
+        <v>731.6365520183392</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7502,10 +7502,10 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,16 +7587,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7611,10 +7611,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7739,16 +7739,16 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>796.2722772255036</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270183</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951771</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>127.6461250100647</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>85.30006332127743</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.53204524669957</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.831980181946</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.74506434916285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>73.11708664792383</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>33.3868515673181</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642798</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.088916456060332</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.84279123392938</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>22.76906918577804</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>5.322962533237842</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>58.9926424961707</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>108.202865045782</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465761</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>29.89407122271319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>94.82465999342807</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.5401988774302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>91.26539274301162</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,16 +25605,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>141.7024351368883</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>10.08817004149461</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669372</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669373</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459066</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.740199767097476e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143899</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.669621439</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.66962143903</v>
-      </c>
       <c r="L4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="P4" t="n">
         <v>15045.66962143909</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707854</v>
+        <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437592</v>
+        <v>314569.1583437589</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437586</v>
+        <v>314569.158343759</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011445</v>
+        <v>-105278.392660866</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.2350757517</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160294</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160294</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831581</v>
+        <v>243458.4246234369</v>
       </c>
       <c r="K6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160298</v>
       </c>
       <c r="L6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160294</v>
       </c>
       <c r="M6" t="n">
-        <v>286055.2198419141</v>
+        <v>285080.6285821924</v>
       </c>
       <c r="N6" t="n">
-        <v>420856.2350757514</v>
+        <v>419881.6438160292</v>
       </c>
       <c r="O6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160295</v>
       </c>
       <c r="P6" t="n">
-        <v>420856.2350757513</v>
+        <v>419881.6438160294</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,16 +26752,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541004</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,16 +26813,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>285.7800647703627</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>258.0648254869985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>7.012336859472782</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.82750184132345</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>231.1337765924364</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>87.8839004630637</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>144.475168643891</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>30.67660679235198</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491423</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.04339244333082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28484,7 +28484,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-8.065946166116674e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.94868387071678e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.126322092888502e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.126322092888502e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.126322092888502e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-8.126322092888502e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-6.920691659962316e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.104943754957264e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.370970955225845e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396486</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813583</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730622</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599572</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35740,13 +35740,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>438.070502060531</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778055967</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>334.5577682773018</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37162,7 +37162,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714619</v>
@@ -37171,7 +37171,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>322.789750202724</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
@@ -37870,13 +37870,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756874</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756874</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190976.71000041</v>
+        <v>2195915.972849442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.95377689311783</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>279.5106614771182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>237.4552014283708</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586874</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710048</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722642</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002176</v>
+        <v>162.2302874358896</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>76.51130099392645</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>85.74850411421474</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.04923259898223</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274057</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>219.394561164648</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>156.5918462324806</v>
       </c>
       <c r="X28" t="n">
-        <v>161.4046520073179</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>98.13489850023161</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>59.04395605284579</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278749999</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>130.8849953956091</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>176.9527187969214</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>144.5349172616891</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1603.407129497229</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1603.407129497229</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1603.407129497229</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.546461473041</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1603.407129497229</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785277</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661919</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837988</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858884</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5263,61 +5263,61 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.657872506522</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="C16" t="n">
-        <v>330.7216895786152</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="D16" t="n">
-        <v>330.7216895786152</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="E16" t="n">
-        <v>330.7216895786152</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>183.8317420807048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500522</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500522</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.657872506522</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201021</v>
+        <v>475.7924673804754</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201021</v>
+        <v>306.8562844525685</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201021</v>
+        <v>306.8562844525685</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201021</v>
+        <v>306.8562844525685</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201021</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201021</v>
+        <v>475.7924673804754</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>853.6001774198821</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>853.6001774198821</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>564.1830073829216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,28 +6691,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617345004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7171,40 +7171,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>731.6365520183392</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.84630119883</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.84630119883</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>952.4291311618693</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>952.4291311618693</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.6365520183392</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7417,31 +7417,31 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9011,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229574</v>
+        <v>176.7176547498459</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504496</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518772</v>
+        <v>56.35436591620515</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181946</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>69.92266165264272</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>80.74506434916285</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>104.371815423949</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.3868515673181</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>66.84279123392938</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.9311521041104</v>
       </c>
       <c r="X28" t="n">
-        <v>64.30500338171925</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>154.0027448235964</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>108.202865045782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338932</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>94.82465999342807</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>2.879261385015894</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>141.7024351368883</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>52.77080983974796</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669372</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854970.3543669375</v>
+        <v>854970.3543669374</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
@@ -26325,22 +26325,22 @@
         <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459068</v>
@@ -26349,13 +26349,13 @@
         <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459066</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143899</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-275398.7208707853</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437589</v>
+        <v>314569.158343759</v>
       </c>
       <c r="D6" t="n">
         <v>314569.158343759</v>
       </c>
       <c r="E6" t="n">
-        <v>-105278.392660866</v>
+        <v>-104401.2605271169</v>
       </c>
       <c r="F6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497793</v>
       </c>
       <c r="G6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.7759497792</v>
       </c>
       <c r="H6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.775949779</v>
       </c>
       <c r="I6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="J6" t="n">
-        <v>243458.4246234369</v>
+        <v>244335.5567571864</v>
       </c>
       <c r="K6" t="n">
-        <v>419881.6438160298</v>
+        <v>420758.775949779</v>
       </c>
       <c r="L6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="M6" t="n">
-        <v>285080.6285821924</v>
+        <v>285957.7607159418</v>
       </c>
       <c r="N6" t="n">
-        <v>419881.6438160292</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="O6" t="n">
-        <v>419881.6438160295</v>
+        <v>420758.775949779</v>
       </c>
       <c r="P6" t="n">
-        <v>419881.6438160294</v>
+        <v>420758.775949779</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.7800647703627</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>7.012336859472782</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>144.475168643891</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28484,7 +28484,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.065946166116674e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.94868387071678e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>408.1301468599572</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734238</v>
+        <v>487.1420318003121</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789686</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>322.789750202724</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>621.6037559756874</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
